--- a/server/src/uploads/excels/346968/excel.xlsx
+++ b/server/src/uploads/excels/346968/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ToeicData\test\Exam Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\651941\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE56FF-07D1-460C-9684-9381462E286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA0BB5-BFEE-4790-B66B-7EBD31F449F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1066">
   <si>
     <t>number</t>
   </si>
@@ -71,9 +71,6 @@
     <t>num1</t>
   </si>
   <si>
-    <t>part1: Look at the picture and listen to the sentences. Choose the sentence that best describes the picture:</t>
-  </si>
-  <si>
     <t>She’s eating in a picnic area</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>num7</t>
   </si>
   <si>
-    <t>part2</t>
-  </si>
-  <si>
     <t xml:space="preserve">How old is this building?
 </t>
   </si>
@@ -677,9 +671,6 @@
     <t>num32-33-34</t>
   </si>
   <si>
-    <t>part3</t>
-  </si>
-  <si>
     <t>What event does the woman mention?</t>
   </si>
   <si>
@@ -1280,9 +1271,6 @@
     <t>num71-72-73</t>
   </si>
   <si>
-    <t>part4</t>
-  </si>
-  <si>
     <t>Who has recorded the message?</t>
   </si>
   <si>
@@ -1754,9 +1742,6 @@
     <t>Sign up for a mailing list</t>
   </si>
   <si>
-    <t>part5</t>
-  </si>
-  <si>
     <t>Former Sendai Company CEO Ken Nakata spoke about -- career experiences.</t>
   </si>
   <si>
@@ -2207,9 +2192,6 @@
     <t xml:space="preserve"> potential</t>
   </si>
   <si>
-    <t>part6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Children of all ages will enjoy the new exhibits.</t>
   </si>
   <si>
@@ -2402,9 +2384,6 @@
     <t xml:space="preserve"> had to receive</t>
   </si>
   <si>
-    <t>part7</t>
-  </si>
-  <si>
     <t>Where is the information most likely found?</t>
   </si>
   <si>
@@ -2828,9 +2807,6 @@
     <t xml:space="preserve"> On Friday</t>
   </si>
   <si>
-    <t>num26,num27</t>
-  </si>
-  <si>
     <t>What is the purpose of the press release?</t>
   </si>
   <si>
@@ -2906,9 +2882,6 @@
     <t>It has a location in Hong Kong</t>
   </si>
   <si>
-    <t>num28,num29</t>
-  </si>
-  <si>
     <t>What is the purpose of the e-mail?</t>
   </si>
   <si>
@@ -2984,9 +2957,6 @@
     <t>By plane</t>
   </si>
   <si>
-    <t>num30,num31,num32</t>
-  </si>
-  <si>
     <t>What is indicated about TTA?</t>
   </si>
   <si>
@@ -3062,9 +3032,6 @@
     <t>Section 4</t>
   </si>
   <si>
-    <t>num33,num34,num35</t>
-  </si>
-  <si>
     <t>What does the article mention about Orange Bay Kitchen?</t>
   </si>
   <si>
@@ -3140,9 +3107,6 @@
     <t>Ms. Smith</t>
   </si>
   <si>
-    <t>num36,num37,num38</t>
-  </si>
-  <si>
     <t>What does the invoice suggest about Green Canyon?</t>
   </si>
   <si>
@@ -3294,6 +3258,96 @@
   </si>
   <si>
     <t>transcript</t>
+  </si>
+  <si>
+    <t>num01</t>
+  </si>
+  <si>
+    <t>num07</t>
+  </si>
+  <si>
+    <t>num08</t>
+  </si>
+  <si>
+    <t>num09</t>
+  </si>
+  <si>
+    <t>num010</t>
+  </si>
+  <si>
+    <t>num011</t>
+  </si>
+  <si>
+    <t>num012</t>
+  </si>
+  <si>
+    <t>num013</t>
+  </si>
+  <si>
+    <t>num02</t>
+  </si>
+  <si>
+    <t>num03</t>
+  </si>
+  <si>
+    <t>num04</t>
+  </si>
+  <si>
+    <t>num05</t>
+  </si>
+  <si>
+    <t>num06</t>
+  </si>
+  <si>
+    <t>num014</t>
+  </si>
+  <si>
+    <t>num015</t>
+  </si>
+  <si>
+    <t>num016</t>
+  </si>
+  <si>
+    <t>num017</t>
+  </si>
+  <si>
+    <t>num018</t>
+  </si>
+  <si>
+    <t>num019</t>
+  </si>
+  <si>
+    <t>num020</t>
+  </si>
+  <si>
+    <t>num021</t>
+  </si>
+  <si>
+    <t>num022</t>
+  </si>
+  <si>
+    <t>num023</t>
+  </si>
+  <si>
+    <t>num024</t>
+  </si>
+  <si>
+    <t>num025</t>
+  </si>
+  <si>
+    <t>num026,num027</t>
+  </si>
+  <si>
+    <t>num028,num029</t>
+  </si>
+  <si>
+    <t>num030,num031,num032</t>
+  </si>
+  <si>
+    <t>num033,num034,num035</t>
+  </si>
+  <si>
+    <t>num036,num037,num038</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3350,6 +3404,12 @@
       <color rgb="FFAA9BF5"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3933,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
@@ -3981,13 +4041,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.3">
@@ -3995,35 +4055,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>1036</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="15">
         <v>1</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="65.25">
@@ -4031,33 +4089,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>1044</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="15">
         <v>1</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.3">
@@ -4065,33 +4123,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>1045</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="15">
         <v>1</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.3">
@@ -4099,33 +4157,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="15">
         <v>1</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.3">
@@ -4133,33 +4191,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K6" s="15">
         <v>1</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.3">
@@ -4167,33 +4225,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="15">
         <v>1</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48.9">
@@ -4202,32 +4260,30 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="15">
         <v>2</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="65.25">
@@ -4236,30 +4292,30 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15">
         <v>2</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="65.25">
@@ -4268,30 +4324,30 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" s="15">
         <v>2</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="81.55">
@@ -4300,30 +4356,30 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="15">
         <v>2</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="65.25">
@@ -4332,30 +4388,30 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" s="15">
         <v>2</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="65.25">
@@ -4364,30 +4420,30 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" s="15">
         <v>2</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="65.25">
@@ -4396,30 +4452,30 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" s="15">
         <v>2</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="81.55">
@@ -4428,30 +4484,30 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="15">
         <v>2</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="65.25">
@@ -4460,30 +4516,30 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="15">
         <v>2</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="65.25">
@@ -4492,30 +4548,30 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="15">
         <v>2</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="65.25">
@@ -4524,30 +4580,30 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18" s="15">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="65.25">
@@ -4556,30 +4612,30 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="15">
         <v>2</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="65.25">
@@ -4588,30 +4644,30 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="15">
         <v>2</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="65.25">
@@ -4620,30 +4676,30 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="15">
         <v>2</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="65.25">
@@ -4652,30 +4708,30 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K22" s="15">
         <v>2</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="81.55">
@@ -4684,30 +4740,30 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23" s="15">
         <v>2</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="65.25">
@@ -4716,30 +4772,30 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24" s="15">
         <v>2</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="65.25">
@@ -4748,30 +4804,30 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K25" s="15">
         <v>2</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="65.25">
@@ -4780,30 +4836,30 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" s="15">
         <v>2</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="81.55">
@@ -4812,30 +4868,30 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="15">
         <v>2</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="65.25">
@@ -4844,30 +4900,30 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K28" s="15">
         <v>2</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="65.25">
@@ -4876,30 +4932,30 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29" s="15">
         <v>2</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="81.55">
@@ -4908,30 +4964,30 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" s="15">
         <v>2</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="81.55">
@@ -4940,30 +4996,30 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" s="15">
         <v>2</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="65.25">
@@ -4972,30 +5028,30 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="15">
         <v>2</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="32.6">
@@ -5004,34 +5060,32 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="J33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="15">
         <v>3</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="32.6">
@@ -5040,32 +5094,32 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="15">
         <v>3</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="32.6">
@@ -5074,32 +5128,32 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="15">
         <v>3</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="32.6">
@@ -5108,32 +5162,32 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="15">
         <v>3</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="32.6">
@@ -5142,32 +5196,32 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37" s="15">
         <v>3</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="32.6">
@@ -5176,32 +5230,32 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" s="15">
         <v>3</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="48.9">
@@ -5210,32 +5264,32 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="15">
         <v>3</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="32.6">
@@ -5244,32 +5298,32 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="J40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K40" s="15">
         <v>3</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="32.6">
@@ -5278,32 +5332,32 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="J41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" s="15">
         <v>3</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="32.6">
@@ -5312,32 +5366,32 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K42" s="15">
         <v>3</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.9">
@@ -5346,32 +5400,32 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="J43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K43" s="15">
         <v>3</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="32.6">
@@ -5380,32 +5434,32 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="15">
         <v>3</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="32.6">
@@ -5414,32 +5468,32 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K45" s="15">
         <v>3</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="32.6">
@@ -5448,32 +5502,32 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K46" s="15">
         <v>3</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="32.6">
@@ -5482,32 +5536,32 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="J47" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="15">
         <v>3</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="32.6">
@@ -5516,32 +5570,32 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" s="15">
         <v>3</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="32.6">
@@ -5550,32 +5604,32 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K49" s="15">
         <v>3</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="32.6">
@@ -5584,32 +5638,32 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="J50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" s="15">
         <v>3</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.3">
@@ -5618,32 +5672,32 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K51" s="15">
         <v>3</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="32.6">
@@ -5652,32 +5706,32 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="J52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K52" s="15">
         <v>3</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="32.6">
@@ -5686,32 +5740,32 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="J53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" s="15">
         <v>3</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="32.6">
@@ -5720,32 +5774,32 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="J54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" s="15">
         <v>3</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="32.6">
@@ -5754,32 +5808,32 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="J55" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" s="15">
         <v>3</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="32.6">
@@ -5788,32 +5842,32 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="J56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K56" s="15">
         <v>3</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="32.6">
@@ -5822,32 +5876,32 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="J57" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K57" s="15">
         <v>3</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="32.6">
@@ -5856,32 +5910,32 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="J58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="15">
         <v>3</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="32.6">
@@ -5890,32 +5944,32 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="J59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K59" s="15">
         <v>3</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="32.6">
@@ -5924,32 +5978,32 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="J60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" s="15">
         <v>3</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48.9">
@@ -5958,32 +6012,32 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="J61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" s="15">
         <v>3</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="32.6">
@@ -5992,32 +6046,32 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="J62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K62" s="15">
         <v>3</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.3">
@@ -6025,35 +6079,35 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>45</v>
+        <v>1037</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="J63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63" s="15">
         <v>3</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48.9">
@@ -6062,11 +6116,11 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F64" s="5">
         <v>21</v>
@@ -6081,13 +6135,13 @@
         <v>15</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64" s="15">
         <v>3</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="32.6">
@@ -6096,32 +6150,32 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K65" s="15">
         <v>3</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="32.6">
@@ -6129,35 +6183,35 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>1038</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="J66" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K66" s="15">
         <v>3</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="48.9">
@@ -6166,32 +6220,32 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="J67" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K67" s="15">
         <v>3</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="32.6">
@@ -6200,32 +6254,32 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="J68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="15">
         <v>3</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="32.6">
@@ -6233,35 +6287,35 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>58</v>
+        <v>1039</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="J69" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" s="15">
         <v>3</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48.9">
@@ -6270,32 +6324,32 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="J70" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K70" s="15">
         <v>3</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="32.6">
@@ -6304,32 +6358,32 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="J71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="15">
         <v>3</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32.6">
@@ -6338,34 +6392,32 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="H72" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="I72" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>381</v>
-      </c>
       <c r="J72" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K72" s="15">
         <v>4</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="32.6">
@@ -6374,32 +6426,32 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>386</v>
-      </c>
       <c r="J73" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" s="15">
         <v>4</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="32.6">
@@ -6408,32 +6460,32 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>391</v>
-      </c>
       <c r="J74" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K74" s="15">
         <v>4</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="32.6">
@@ -6442,32 +6494,32 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>397</v>
-      </c>
       <c r="J75" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K75" s="15">
         <v>4</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48.9">
@@ -6476,32 +6528,32 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>402</v>
-      </c>
       <c r="J76" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="15">
         <v>4</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="48.9">
@@ -6510,32 +6562,32 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>407</v>
-      </c>
       <c r="J77" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K77" s="15">
         <v>4</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="32.6">
@@ -6544,32 +6596,32 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>413</v>
-      </c>
       <c r="J78" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" s="15">
         <v>4</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="32.6">
@@ -6578,32 +6630,32 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>418</v>
-      </c>
       <c r="J79" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" s="15">
         <v>4</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.3">
@@ -6612,32 +6664,32 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="J80" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K80" s="15">
         <v>4</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16.3">
@@ -6646,32 +6698,32 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="J81" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" s="15">
         <v>4</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="32.6">
@@ -6680,32 +6732,32 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>434</v>
-      </c>
       <c r="J82" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K82" s="15">
         <v>4</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="48.9">
@@ -6714,32 +6766,32 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>439</v>
-      </c>
       <c r="J83" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K83" s="15">
         <v>4</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="32.6">
@@ -6748,32 +6800,32 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>445</v>
-      </c>
       <c r="J84" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K84" s="15">
         <v>4</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="48.9">
@@ -6782,32 +6834,32 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="J85" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" s="15">
         <v>4</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="32.6">
@@ -6816,32 +6868,32 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>455</v>
-      </c>
       <c r="J86" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K86" s="15">
         <v>4</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="32.6">
@@ -6850,32 +6902,32 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>461</v>
-      </c>
       <c r="J87" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K87" s="15">
         <v>4</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="32.6">
@@ -6884,32 +6936,32 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>466</v>
-      </c>
       <c r="J88" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" s="15">
         <v>4</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="32.6">
@@ -6918,32 +6970,32 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>471</v>
-      </c>
       <c r="J89" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K89" s="15">
         <v>4</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="32.6">
@@ -6952,32 +7004,32 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>477</v>
-      </c>
       <c r="J90" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="15">
         <v>4</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="48.9">
@@ -6986,32 +7038,32 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>482</v>
-      </c>
       <c r="J91" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" s="15">
         <v>4</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="32.6">
@@ -7020,32 +7072,32 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K92" s="15">
         <v>4</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="32.6">
@@ -7054,32 +7106,32 @@
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>492</v>
-      </c>
       <c r="J93" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K93" s="15">
         <v>4</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="32.6">
@@ -7088,32 +7140,32 @@
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>497</v>
-      </c>
       <c r="J94" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" s="15">
         <v>4</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="65.25">
@@ -7122,32 +7174,32 @@
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="J95" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K95" s="15">
         <v>4</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="48.9">
@@ -7155,35 +7207,35 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>63</v>
+        <v>1040</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>508</v>
-      </c>
       <c r="J96" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" s="15">
         <v>4</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="48.9">
@@ -7192,32 +7244,32 @@
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="J97" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K97" s="15">
         <v>4</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="32.6">
@@ -7226,32 +7278,32 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I98" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="J98" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K98" s="15">
         <v>4</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="32.6">
@@ -7259,35 +7311,35 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>69</v>
+        <v>1041</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="I99" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>524</v>
-      </c>
       <c r="J99" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K99" s="15">
         <v>4</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="48.9">
@@ -7296,32 +7348,32 @@
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>529</v>
-      </c>
       <c r="J100" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K100" s="15">
         <v>4</v>
       </c>
       <c r="L100" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="48.9">
@@ -7330,32 +7382,32 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K101" s="15">
         <v>4</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="48.9">
@@ -7364,32 +7416,30 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="J102" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K102" s="15">
         <v>5</v>
       </c>
       <c r="L102" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="48.9">
@@ -7400,28 +7450,28 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K103" s="15">
         <v>5</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="65.25">
@@ -7432,28 +7482,28 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104" s="15">
         <v>5</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="48.9">
@@ -7464,28 +7514,28 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K105" s="15">
         <v>5</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="65.25">
@@ -7496,28 +7546,28 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K106" s="15">
         <v>5</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="48.9">
@@ -7528,28 +7578,28 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K107" s="15">
         <v>5</v>
       </c>
       <c r="L107" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="65.25">
@@ -7560,28 +7610,28 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K108" s="15">
         <v>5</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.9">
@@ -7592,28 +7642,28 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K109" s="15">
         <v>5</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="65.25">
@@ -7624,28 +7674,28 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" s="15">
         <v>5</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="48.9">
@@ -7656,28 +7706,28 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K111" s="15">
         <v>5</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="48.9">
@@ -7688,28 +7738,28 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K112" s="15">
         <v>5</v>
       </c>
       <c r="L112" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.9">
@@ -7720,28 +7770,28 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K113" s="15">
         <v>5</v>
       </c>
       <c r="L113" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="65.25">
@@ -7752,28 +7802,28 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K114" s="15">
         <v>5</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="65.25">
@@ -7784,28 +7834,28 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K115" s="15">
         <v>5</v>
       </c>
       <c r="L115" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="65.25">
@@ -7816,28 +7866,28 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K116" s="15">
         <v>5</v>
       </c>
       <c r="L116" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="81.55">
@@ -7848,28 +7898,28 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K117" s="15">
         <v>5</v>
       </c>
       <c r="L117" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="65.25">
@@ -7880,28 +7930,28 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K118" s="15">
         <v>5</v>
       </c>
       <c r="L118" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="65.25">
@@ -7912,28 +7962,28 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K119" s="15">
         <v>5</v>
       </c>
       <c r="L119" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="65.25">
@@ -7944,28 +7994,28 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K120" s="15">
         <v>5</v>
       </c>
       <c r="L120" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="65.25">
@@ -7976,28 +8026,28 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K121" s="15">
         <v>5</v>
       </c>
       <c r="L121" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="65.25">
@@ -8008,28 +8058,28 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K122" s="15">
         <v>5</v>
       </c>
       <c r="L122" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="81.55">
@@ -8040,28 +8090,28 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K123" s="15">
         <v>5</v>
       </c>
       <c r="L123" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="65.25">
@@ -8072,28 +8122,28 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K124" s="15">
         <v>5</v>
       </c>
       <c r="L124" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="81.55">
@@ -8104,28 +8154,28 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K125" s="15">
         <v>5</v>
       </c>
       <c r="L125" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="65.25">
@@ -8136,28 +8186,28 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K126" s="15">
         <v>5</v>
       </c>
       <c r="L126" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="81.55">
@@ -8168,28 +8218,28 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K127" s="15">
         <v>5</v>
       </c>
       <c r="L127" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="48.9">
@@ -8200,28 +8250,28 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K128" s="15">
         <v>5</v>
       </c>
       <c r="L128" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="65.25">
@@ -8232,28 +8282,28 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K129" s="15">
         <v>5</v>
       </c>
       <c r="L129" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="65.25">
@@ -8264,28 +8314,28 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K130" s="15">
         <v>5</v>
       </c>
       <c r="L130" s="16" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="65.25">
@@ -8296,28 +8346,28 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K131" s="15">
         <v>5</v>
       </c>
       <c r="L131" s="16" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="32.6">
@@ -8325,33 +8375,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>74</v>
+        <v>1042</v>
       </c>
       <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
-        <v>685</v>
-      </c>
+      <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K132" s="15">
         <v>6</v>
       </c>
       <c r="L132" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="16.3">
@@ -8363,25 +8411,25 @@
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K133" s="15">
         <v>6</v>
       </c>
       <c r="L133" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="16.3">
@@ -8393,25 +8441,25 @@
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K134" s="15">
         <v>6</v>
       </c>
       <c r="L134" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="16.3">
@@ -8423,25 +8471,25 @@
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K135" s="15">
         <v>6</v>
       </c>
       <c r="L135" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="16.3">
@@ -8449,31 +8497,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>79</v>
+        <v>1043</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K136" s="15">
         <v>6</v>
       </c>
       <c r="L136" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="16.3">
@@ -8485,25 +8533,25 @@
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K137" s="15">
         <v>6</v>
       </c>
       <c r="L137" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="32.6">
@@ -8515,25 +8563,25 @@
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K138" s="15">
         <v>6</v>
       </c>
       <c r="L138" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="16.3">
@@ -8545,25 +8593,25 @@
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K139" s="15">
         <v>6</v>
       </c>
       <c r="L139" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="16.3">
@@ -8571,31 +8619,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>84</v>
+        <v>1049</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K140" s="15">
         <v>6</v>
       </c>
       <c r="L140" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="32.6">
@@ -8607,25 +8655,25 @@
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K141" s="15">
         <v>6</v>
       </c>
       <c r="L141" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="16.3">
@@ -8637,25 +8685,25 @@
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K142" s="15">
         <v>6</v>
       </c>
       <c r="L142" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="16.3">
@@ -8667,25 +8715,25 @@
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K143" s="15">
         <v>6</v>
       </c>
       <c r="L143" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="32.6">
@@ -8693,31 +8741,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>89</v>
+        <v>1050</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K144" s="15">
         <v>6</v>
       </c>
       <c r="L144" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="16.3">
@@ -8729,25 +8777,25 @@
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K145" s="15">
         <v>6</v>
       </c>
       <c r="L145" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.3">
@@ -8759,25 +8807,25 @@
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K146" s="15">
         <v>6</v>
       </c>
       <c r="L146" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.3">
@@ -8789,25 +8837,25 @@
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K147" s="15">
         <v>6</v>
       </c>
       <c r="L147" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="32.6">
@@ -8815,35 +8863,33 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>94</v>
+        <v>1051</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="4" t="s">
-        <v>750</v>
-      </c>
+      <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K148" s="15">
         <v>7</v>
       </c>
       <c r="L148" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="32.6">
@@ -8854,28 +8900,28 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K149" s="15">
         <v>7</v>
       </c>
       <c r="L149" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="32.6">
@@ -8883,33 +8929,33 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>99</v>
+        <v>1052</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" s="15">
         <v>7</v>
       </c>
       <c r="L150" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="32.6">
@@ -8920,28 +8966,28 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K151" s="15">
         <v>7</v>
       </c>
       <c r="L151" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="32.6">
@@ -8949,33 +8995,33 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>104</v>
+        <v>1053</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" s="15">
         <v>7</v>
       </c>
       <c r="L152" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="32.6">
@@ -8986,28 +9032,28 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K153" s="15">
         <v>7</v>
       </c>
       <c r="L153" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="65.25">
@@ -9015,33 +9061,33 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>109</v>
+        <v>1054</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K154" s="15">
         <v>7</v>
       </c>
       <c r="L154" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="32.6">
@@ -9052,28 +9098,28 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K155" s="15">
         <v>7</v>
       </c>
       <c r="L155" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="32.6">
@@ -9081,33 +9127,33 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>114</v>
+        <v>1055</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K156" s="15">
         <v>7</v>
       </c>
       <c r="L156" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="32.6">
@@ -9118,28 +9164,28 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K157" s="15">
         <v>7</v>
       </c>
       <c r="L157" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="32.6">
@@ -9150,28 +9196,28 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" s="15">
         <v>7</v>
       </c>
       <c r="L158" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="32.6">
@@ -9179,33 +9225,33 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>119</v>
+        <v>1056</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159" s="15">
         <v>7</v>
       </c>
       <c r="L159" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="32.6">
@@ -9216,28 +9262,28 @@
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K160" s="15">
         <v>7</v>
       </c>
       <c r="L160" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="97.85">
@@ -9248,28 +9294,28 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K161" s="15">
         <v>7</v>
       </c>
       <c r="L161" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="32.6">
@@ -9277,33 +9323,33 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>124</v>
+        <v>1057</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K162" s="15">
         <v>7</v>
       </c>
       <c r="L162" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="32.6">
@@ -9314,28 +9360,28 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K163" s="15">
         <v>7</v>
       </c>
       <c r="L163" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="32.6">
@@ -9346,28 +9392,28 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K164" s="15">
         <v>7</v>
       </c>
       <c r="L164" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="48.9">
@@ -9378,28 +9424,28 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K165" s="15">
         <v>7</v>
       </c>
       <c r="L165" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="48.9">
@@ -9407,33 +9453,33 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>129</v>
+        <v>1058</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K166" s="15">
         <v>7</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="48.9">
@@ -9444,28 +9490,28 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K167" s="15">
         <v>7</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="32.6">
@@ -9476,28 +9522,28 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K168" s="15">
         <v>7</v>
       </c>
       <c r="L168" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="32.6">
@@ -9505,33 +9551,33 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>134</v>
+        <v>1059</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K169" s="15">
         <v>7</v>
       </c>
       <c r="L169" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="48.9">
@@ -9542,28 +9588,28 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K170" s="15">
         <v>7</v>
       </c>
       <c r="L170" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="32.6">
@@ -9574,28 +9620,28 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K171" s="15">
         <v>7</v>
       </c>
       <c r="L171" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="97.85">
@@ -9606,28 +9652,28 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K172" s="15">
         <v>7</v>
       </c>
       <c r="L172" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="32.6">
@@ -9635,33 +9681,33 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>139</v>
+        <v>1060</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K173" s="15">
         <v>7</v>
       </c>
       <c r="L173" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="65.25">
@@ -9672,28 +9718,28 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K174" s="15">
         <v>7</v>
       </c>
       <c r="L174" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="32.6">
@@ -9704,28 +9750,28 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K175" s="15">
         <v>7</v>
       </c>
       <c r="L175" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="48.9">
@@ -9736,28 +9782,28 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K176" s="15">
         <v>7</v>
       </c>
       <c r="L176" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="32.6">
@@ -9765,33 +9811,33 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>892</v>
+        <v>1061</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K177" s="15">
         <v>7</v>
       </c>
       <c r="L177" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="65.25">
@@ -9802,28 +9848,28 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K178" s="15">
         <v>7</v>
       </c>
       <c r="L178" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="32.6">
@@ -9834,28 +9880,28 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K179" s="15">
         <v>7</v>
       </c>
       <c r="L179" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="32.6">
@@ -9866,28 +9912,28 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K180" s="15">
         <v>7</v>
       </c>
       <c r="L180" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="48.9">
@@ -9898,28 +9944,28 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K181" s="15">
         <v>7</v>
       </c>
       <c r="L181" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="32.6">
@@ -9927,33 +9973,33 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>918</v>
+        <v>1062</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K182" s="15">
         <v>7</v>
       </c>
       <c r="L182" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="32.6">
@@ -9964,28 +10010,28 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K183" s="15">
         <v>7</v>
       </c>
       <c r="L183" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="32.6">
@@ -9996,28 +10042,28 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K184" s="15">
         <v>7</v>
       </c>
       <c r="L184" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="32.6">
@@ -10028,28 +10074,28 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K185" s="15">
         <v>7</v>
       </c>
       <c r="L185" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="32.6">
@@ -10060,28 +10106,28 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K186" s="15">
         <v>7</v>
       </c>
       <c r="L186" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="48.9">
@@ -10089,33 +10135,33 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>944</v>
+        <v>1063</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K187" s="15">
         <v>7</v>
       </c>
       <c r="L187" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="65.25">
@@ -10126,28 +10172,28 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K188" s="15">
         <v>7</v>
       </c>
       <c r="L188" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="32.6">
@@ -10158,28 +10204,28 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K189" s="15">
         <v>7</v>
       </c>
       <c r="L189" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="32.6">
@@ -10190,28 +10236,28 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K190" s="15">
         <v>7</v>
       </c>
       <c r="L190" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="65.25">
@@ -10222,28 +10268,28 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K191" s="15">
         <v>7</v>
       </c>
       <c r="L191" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="48.9">
@@ -10251,33 +10297,33 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>970</v>
+        <v>1064</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K192" s="15">
         <v>7</v>
       </c>
       <c r="L192" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="65.25">
@@ -10288,28 +10334,28 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K193" s="15">
         <v>7</v>
       </c>
       <c r="L193" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="48.9">
@@ -10320,28 +10366,28 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K194" s="15">
         <v>7</v>
       </c>
       <c r="L194" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="32.6">
@@ -10352,28 +10398,28 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K195" s="15">
         <v>7</v>
       </c>
       <c r="L195" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="48.9">
@@ -10384,28 +10430,28 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K196" s="15">
         <v>7</v>
       </c>
       <c r="L196" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="48.9">
@@ -10413,33 +10459,33 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>996</v>
+        <v>1065</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K197" s="15">
         <v>7</v>
       </c>
       <c r="L197" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="48.9">
@@ -10450,28 +10496,28 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K198" s="15">
         <v>7</v>
       </c>
       <c r="L198" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="48.9">
@@ -10482,28 +10528,28 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K199" s="15">
         <v>7</v>
       </c>
       <c r="L199" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="32.6">
@@ -10514,28 +10560,28 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K200" s="15">
         <v>7</v>
       </c>
       <c r="L200" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="32.6">
@@ -10546,28 +10592,28 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K201" s="15">
         <v>7</v>
       </c>
       <c r="L201" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="16.3">
@@ -10775,6 +10821,7 @@
       <c r="J218" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>